--- a/Exercicios_02.08/1.3-exercicios-pclincs/Modelagem/1.3-exercicio-pclinics-fisico.xlsx
+++ b/Exercicios_02.08/1.3-exercicios-pclincs/Modelagem/1.3-exercicio-pclinics-fisico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\2°semestre- SENAI\sprint-1_2-semestre\Exercicios_02.08\1.3-exercicios-pclincs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\2°semestre- SENAI\sprint-1_2-semestre\Exercicios_02.08\1.3-exercicios-pclincs\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E01684-77DA-465D-BDE1-0FA3B9F6FF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FB9C59-DB11-4EF3-ACE1-C96FE0038019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="255" windowWidth="21600" windowHeight="11385" xr2:uid="{92CA52D3-D9AD-4D32-B518-32793EB2E825}"/>
+    <workbookView xWindow="735" yWindow="1080" windowWidth="21600" windowHeight="11040" xr2:uid="{92CA52D3-D9AD-4D32-B518-32793EB2E825}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>dono</t>
   </si>
@@ -105,21 +105,12 @@
     <t>nomeRaca</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Especie</t>
   </si>
   <si>
     <t>nomeEsp</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>dataAtendimento</t>
   </si>
   <si>
@@ -127,6 +118,63 @@
   </si>
   <si>
     <t>w</t>
+  </si>
+  <si>
+    <t>descricao</t>
+  </si>
+  <si>
+    <t>exames</t>
+  </si>
+  <si>
+    <t>banho</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>Murillo</t>
+  </si>
+  <si>
+    <t>CRMV</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>nomeClinica</t>
+  </si>
+  <si>
+    <t>Petstar</t>
+  </si>
+  <si>
+    <t>Petvip</t>
+  </si>
+  <si>
+    <t>Cachorro</t>
+  </si>
+  <si>
+    <t>Gato</t>
+  </si>
+  <si>
+    <t>Cobra</t>
+  </si>
+  <si>
+    <t>Persa</t>
+  </si>
+  <si>
+    <t>Shih-tzu</t>
+  </si>
+  <si>
+    <t>Cascavel</t>
+  </si>
+  <si>
+    <t>rua3</t>
+  </si>
+  <si>
+    <t>Petlux</t>
   </si>
 </sst>
 </file>
@@ -309,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -356,6 +404,13 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B880A24-AF96-43FC-86CF-BC4A1EDC2A09}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,9 +748,10 @@
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -714,6 +770,7 @@
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -743,6 +800,9 @@
       <c r="L2" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="M2" s="31" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -772,6 +832,9 @@
       <c r="L3" s="13" t="s">
         <v>14</v>
       </c>
+      <c r="M3" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -787,7 +850,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="10">
         <v>2</v>
@@ -801,8 +864,17 @@
       <c r="L4" s="13" t="s">
         <v>15</v>
       </c>
+      <c r="M4" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="E5" s="10">
         <v>3</v>
       </c>
@@ -810,7 +882,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" s="10">
         <v>3</v>
@@ -819,12 +891,16 @@
         <v>3</v>
       </c>
       <c r="K5" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
+        <v>30</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>16</v>
@@ -832,6 +908,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
+      <c r="E7" s="29"/>
       <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -845,12 +922,16 @@
         <v>12</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="14"/>
+      <c r="I8" s="32"/>
       <c r="K8" s="22" t="s">
         <v>22</v>
       </c>
@@ -870,12 +951,18 @@
       <c r="D9" s="7">
         <v>44510</v>
       </c>
+      <c r="E9" s="28" t="s">
+        <v>32</v>
+      </c>
       <c r="G9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>20</v>
       </c>
+      <c r="I9" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="K9" s="23" t="s">
         <v>23</v>
       </c>
@@ -899,20 +986,26 @@
       <c r="D10" s="7">
         <v>44511</v>
       </c>
+      <c r="E10" s="28" t="s">
+        <v>33</v>
+      </c>
       <c r="G10" s="16">
         <v>1</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>21</v>
       </c>
+      <c r="I10" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="K10" s="24">
         <v>1</v>
       </c>
       <c r="L10" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -928,51 +1021,56 @@
       <c r="D11" s="7">
         <v>44512</v>
       </c>
+      <c r="E11" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="G11" s="16">
         <v>2</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="K11" s="24">
         <v>2</v>
       </c>
       <c r="L11" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>44513</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="28"/>
+      <c r="G12" s="16">
+        <v>3</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="K12" s="24">
         <v>3</v>
       </c>
       <c r="L12" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12" s="25" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G15" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -981,7 +1079,7 @@
         <v>24</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.25">
@@ -989,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.25">
@@ -997,7 +1095,15 @@
         <v>2</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="20">
+        <v>3</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
